--- a/datos/_prep/pop_estim.xlsx
+++ b/datos/_prep/pop_estim.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="96">
   <si>
     <t xml:space="preserve">variable_valor</t>
   </si>
@@ -308,111 +308,6 @@
   </si>
   <si>
     <t xml:space="preserve">Inactivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministerio del Interior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|PSOE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSOE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|C's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|CDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|ERC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|PNV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|Bildu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bildu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|Vox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|Otro partido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otro partido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|Nulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|En blanco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En blanco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|No votó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No votó</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|No recuerda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No recuerda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuerdo de voto 2016 (P4)|NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC</t>
   </si>
 </sst>
 </file>
@@ -424,7 +319,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -446,12 +341,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -501,7 +390,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -530,10 +419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1417,374 +1306,22 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>21.045</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>14.3655</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>8.3265</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>13.4505</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>1.281</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>1.647</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>0.732</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>0.4575</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>0.183</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>0.0915</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>1.098</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>0.6405</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>0.4575</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>27.633</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
